--- a/biology/Médecine/Établissement_public_de_santé_mentale_de_La_Réunion/Établissement_public_de_santé_mentale_de_La_Réunion.xlsx
+++ b/biology/Médecine/Établissement_public_de_santé_mentale_de_La_Réunion/Établissement_public_de_santé_mentale_de_La_Réunion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tablissement_public_de_sant%C3%A9_mentale_de_La_R%C3%A9union</t>
+          <t>Établissement_public_de_santé_mentale_de_La_Réunion</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Établissement public de santé mentale de La Réunion, ou EPSMR, est un établissement public de santé de l'île de La Réunion, département d'outre-mer français dans le sud-ouest de l'océan Indien. 
-Il est situé sur le territoire de la commune de Saint-Paul. Il est certifié Haute qualité des soins depuis 2023 par la Haute Autorité de santé[1].
-En 2021, un projet de construction de plusieurs centres annexes est lancé : un centre devait être ouvert début 2023 dans le quartier de La Mare à Sainte-Marie ; trois autres étaient prévus à La Possession, Saint-Paul et Saint-Benoît ; une unité pour malades difficiles devait également être ouverte sur le site principal[2].
+Il est situé sur le territoire de la commune de Saint-Paul. Il est certifié Haute qualité des soins depuis 2023 par la Haute Autorité de santé.
+En 2021, un projet de construction de plusieurs centres annexes est lancé : un centre devait être ouvert début 2023 dans le quartier de La Mare à Sainte-Marie ; trois autres étaient prévus à La Possession, Saint-Paul et Saint-Benoît ; une unité pour malades difficiles devait également être ouverte sur le site principal.
 </t>
         </is>
       </c>
